--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3960020.154194112</v>
+        <v>3957475.932258085</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7205482.73704709</v>
+        <v>7205482.737047089</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.11181591693564</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>19.72734108435023</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>119.9564503828295</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>136.1854248467224</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>29.00708539155832</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>349.3041378118516</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>98.21650713996782</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>79.84909313763026</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>37.91280191498524</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>47.78297375075586</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>83.84008823602244</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>176.6147814976417</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787265</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>267.8442188810055</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>146.7288573407938</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>94.29180769719218</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155181</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.21296519233973</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.20090664125435</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340681971946</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>215.1472946632826</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>64.91921363453612</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>186.0608412361617</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223678</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>115.4863975071906</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>28.54004930889255</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>178.3456785990311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>42.20606459030861</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>99.6514066310757</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>178.6837743322703</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>30.87238256911979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.1820732698679</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207801</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207801</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764006</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
         <v>161.9163864599159</v>
@@ -4328,7 +4328,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4337,13 +4337,13 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372648</v>
+        <v>730.1757415093701</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372648</v>
+        <v>540.7559564928854</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372648</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372648</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372648</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372648</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207801</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>533.4995072678428</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>533.4995072678428</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>384.5650976065915</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>384.5650976065915</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>238.0305396334765</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4419,10 +4419,10 @@
         <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843275</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843275</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843275</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843275</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
-        <v>533.4995072678428</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652795</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="C4" t="n">
-        <v>750.1023486652795</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="D4" t="n">
-        <v>612.5413134665699</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="E4" t="n">
-        <v>612.5413134665699</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686595</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
         <v>15.00204697330559</v>
@@ -4492,46 +4492,46 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484195</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430762</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652795</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652795</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652795</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652795</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652795</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652795</v>
+        <v>44.30213322740491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>593.3410717304514</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="C5" t="n">
-        <v>593.3410717304514</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="D5" t="n">
-        <v>235.0753731237009</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="E5" t="n">
-        <v>235.0753731237009</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="F5" t="n">
-        <v>228.1298723744974</v>
+        <v>357.8556596934226</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038229</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1332.709567064687</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="U5" t="n">
-        <v>1332.709567064687</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="V5" t="n">
-        <v>1332.709567064687</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="W5" t="n">
-        <v>979.9409117945731</v>
+        <v>1121.674026919244</v>
       </c>
       <c r="X5" t="n">
-        <v>979.9409117945731</v>
+        <v>1121.674026919244</v>
       </c>
       <c r="Y5" t="n">
-        <v>979.9409117945731</v>
+        <v>1121.674026919244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.33076088699</v>
+        <v>508.3556507894603</v>
       </c>
       <c r="C6" t="n">
-        <v>471.33076088699</v>
+        <v>508.3556507894603</v>
       </c>
       <c r="D6" t="n">
-        <v>471.33076088699</v>
+        <v>427.7000011554903</v>
       </c>
       <c r="E6" t="n">
-        <v>312.0933058815345</v>
+        <v>268.4625461500348</v>
       </c>
       <c r="F6" t="n">
-        <v>165.5587479084195</v>
+        <v>268.4625461500348</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
@@ -4650,13 +4650,13 @@
         <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277258</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
         <v>1448.853441912517</v>
@@ -4677,19 +4677,19 @@
         <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1309.395253605746</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1309.395253605746</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1055.157896877545</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="X6" t="n">
-        <v>847.3063966720119</v>
+        <v>676.5709878095283</v>
       </c>
       <c r="Y6" t="n">
-        <v>639.5460979070581</v>
+        <v>676.5709878095283</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.2523406922767</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="C7" t="n">
-        <v>480.2523406922767</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="D7" t="n">
-        <v>480.2523406922767</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="E7" t="n">
-        <v>332.3392471098836</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="F7" t="n">
-        <v>185.4492996119732</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
-        <v>185.4492996119732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1244.866035049592</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>955.7294080416937</v>
+        <v>866.3734874035786</v>
       </c>
       <c r="V7" t="n">
-        <v>701.0449198358068</v>
+        <v>611.6889991976917</v>
       </c>
       <c r="W7" t="n">
-        <v>701.0449198358068</v>
+        <v>611.6889991976917</v>
       </c>
       <c r="X7" t="n">
-        <v>701.0449198358068</v>
+        <v>383.6994482996744</v>
       </c>
       <c r="Y7" t="n">
-        <v>480.2523406922767</v>
+        <v>383.6994482996744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.627770275373</v>
+        <v>894.9479188946043</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.665253334961</v>
+        <v>894.9479188946043</v>
       </c>
       <c r="D8" t="n">
-        <v>833.3995547282108</v>
+        <v>536.6822202878539</v>
       </c>
       <c r="E8" t="n">
-        <v>447.6113021299665</v>
+        <v>536.6822202878539</v>
       </c>
       <c r="F8" t="n">
-        <v>440.6658013807631</v>
+        <v>529.7367195386504</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7160153974696</v>
+        <v>351.3379503491133</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759745</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872707</v>
+        <v>156.8927045872706</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158998</v>
+        <v>376.2952505158987</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985273</v>
+        <v>685.3852714985258</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556943</v>
+        <v>1060.97691255694</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415488</v>
+        <v>1447.259827415484</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975109</v>
+        <v>1798.680568975103</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631088</v>
+        <v>2064.10904063108</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208126</v>
+        <v>2215.262022208118</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380914</v>
+        <v>2007.78217248992</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380914</v>
+        <v>2007.78217248992</v>
       </c>
       <c r="V8" t="n">
-        <v>1947.227610339495</v>
+        <v>2007.78217248992</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.227610339495</v>
+        <v>1655.013517219806</v>
       </c>
       <c r="X8" t="n">
-        <v>1947.227610339495</v>
+        <v>1281.547758958726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1947.227610339495</v>
+        <v>1281.547758958726</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7643077205289</v>
+        <v>583.2797313720712</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3112784394019</v>
+        <v>435.0687643611684</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3768687781507</v>
+        <v>286.1343546999171</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1394137726951</v>
+        <v>286.1343546999171</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>139.5997967268021</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>139.5997967268021</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676153</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424082</v>
+        <v>92.56405995424022</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643082</v>
+        <v>514.9354973067597</v>
       </c>
       <c r="L9" t="n">
-        <v>515.3178884939846</v>
+        <v>932.8222256819261</v>
       </c>
       <c r="M9" t="n">
-        <v>840.6532621440904</v>
+        <v>1258.157599332031</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.553150423367</v>
+        <v>1606.512277172783</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729451</v>
+        <v>1902.968955587934</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.59199499678</v>
+        <v>2121.568509855262</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380906</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472981</v>
+        <v>2079.218696472972</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064437</v>
+        <v>1884.596484064429</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322579</v>
+        <v>1656.49633232257</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090836</v>
+        <v>1421.344224090828</v>
       </c>
       <c r="W9" t="n">
-        <v>1167.106867362635</v>
+        <v>1167.106867362626</v>
       </c>
       <c r="X9" t="n">
-        <v>959.2553671571018</v>
+        <v>959.2553671570931</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.979644740597</v>
+        <v>751.4950683921393</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.8196499718804</v>
+        <v>213.291729455525</v>
       </c>
       <c r="C10" t="n">
-        <v>209.8196499718804</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="D10" t="n">
-        <v>209.8196499718804</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="F10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761812</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692026</v>
+        <v>60.95254262691984</v>
       </c>
       <c r="K10" t="n">
-        <v>218.063342327403</v>
+        <v>218.0633423274022</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918436</v>
+        <v>474.6375091918422</v>
       </c>
       <c r="M10" t="n">
-        <v>755.548116892171</v>
+        <v>755.5481168921691</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.213914629316</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.51424854613</v>
+        <v>1277.514248546127</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.32336065924</v>
+        <v>1461.323360659236</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155968</v>
+        <v>1505.148182155964</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620022</v>
+        <v>1396.807701620018</v>
       </c>
       <c r="S10" t="n">
-        <v>1197.947592890926</v>
+        <v>1197.947592890922</v>
       </c>
       <c r="T10" t="n">
-        <v>974.422038732605</v>
+        <v>974.4220387326009</v>
       </c>
       <c r="U10" t="n">
-        <v>685.2967173212974</v>
+        <v>685.2967173212933</v>
       </c>
       <c r="V10" t="n">
-        <v>430.6122291154105</v>
+        <v>430.6122291154064</v>
       </c>
       <c r="W10" t="n">
-        <v>430.6122291154105</v>
+        <v>430.6122291154064</v>
       </c>
       <c r="X10" t="n">
-        <v>430.6122291154105</v>
+        <v>213.291729455525</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.8196499718804</v>
+        <v>213.291729455525</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,7 +5309,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5358,16 +5358,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.122301814677</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1720.047075158874</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1465.362586952987</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.37303605497</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249853</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.4916164683287</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>754.5554335404219</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>666.7308394007268</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>518.8177458183337</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>371.9277983204233</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>204.7316990353033</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,13 +6297,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
@@ -6312,13 +6312,13 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2199.770229732631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1910.695003076829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1366.593344833982</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1138.603793935964</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142286973</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>748.5648313007904</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>598.4481918884546</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>450.5350983060615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>303.6451508081511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>136.4490515230311</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>136.4490515230311</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,19 +6783,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
         <v>632.7243904253734</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7655,16 +7655,16 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>145.2551346857769</v>
+        <v>99.67938739116971</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>147.3598584166009</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>157.256315702516</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>202.5709196348713</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.07334534437598</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688309</v>
+        <v>30.32522655688338</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.265260754708</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>31.34460909112661</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.3662399606945</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33.12907551102171</v>
+        <v>40.3204386478848</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>111.7546635373313</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.05977172825712</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.05977172825693</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>152.4862366927523</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.148205849667022</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>221.2652607547082</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.23897475306332</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642841</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.599690006</v>
@@ -26332,28 +26332,28 @@
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296906</v>
+        <v>138712.7919296882</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745748</v>
+        <v>589678.7921745771</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854451</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153567</v>
+        <v>60247.15959153573</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484296</v>
+        <v>33617.87336484235</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167274</v>
+        <v>154073.851016728</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296188</v>
+        <v>170385.5244296195</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="G4" t="n">
         <v>14216.75207685503</v>
       </c>
-      <c r="G4" t="n">
-        <v>14216.75207685506</v>
-      </c>
       <c r="H4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685511</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685506</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14216.75207685506</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969308</v>
+        <v>86168.0402996929</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105470.109731382</v>
+        <v>-105470.1097313813</v>
       </c>
       <c r="C6" t="n">
-        <v>277052.6664917003</v>
+        <v>277052.666491701</v>
       </c>
       <c r="D6" t="n">
-        <v>425775.4132052805</v>
+        <v>425775.4132052829</v>
       </c>
       <c r="E6" t="n">
-        <v>102128.5256146692</v>
+        <v>102093.7876892309</v>
       </c>
       <c r="F6" t="n">
-        <v>691807.3177892442</v>
+        <v>691772.5798638082</v>
       </c>
       <c r="G6" t="n">
-        <v>691807.3177892439</v>
+        <v>691772.5798638078</v>
       </c>
       <c r="H6" t="n">
-        <v>691807.3177892438</v>
+        <v>691772.5798638081</v>
       </c>
       <c r="I6" t="n">
-        <v>691807.3177892442</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="J6" t="n">
-        <v>642742.3730606994</v>
+        <v>642707.6351352637</v>
       </c>
       <c r="K6" t="n">
-        <v>631560.1581977084</v>
+        <v>631525.4202722727</v>
       </c>
       <c r="L6" t="n">
-        <v>658189.4444244013</v>
+        <v>658154.706498966</v>
       </c>
       <c r="M6" t="n">
-        <v>537733.4667725166</v>
+        <v>537698.7288470804</v>
       </c>
       <c r="N6" t="n">
-        <v>691807.3177892441</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="O6" t="n">
-        <v>691807.3177892439</v>
+        <v>691772.5798638082</v>
       </c>
       <c r="P6" t="n">
-        <v>691807.3177892441</v>
+        <v>691772.5798638084</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.015790261611063e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790453</v>
+        <v>863.7717861790433</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952286</v>
+        <v>554.4443315952265</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814353</v>
+        <v>113.7908296814333</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626284</v>
+        <v>504.2037141626305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132447</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044198</v>
+        <v>618.2639565044219</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132444</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044195</v>
+        <v>618.2639565044221</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132447</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044198</v>
+        <v>618.2639565044219</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>317.5712257037473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139.0484721057029</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,19 +27461,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>16.20733898294587</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482517</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>12.43004817148991</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>137.9948498111559</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>23.43375830553084</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>33.42970385162897</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>314.0712315550763</v>
-      </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>67.59597242700849</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.9224507853531</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>174.3840738815604</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>202.4051725017965</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>235.2155066258188</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>59.90803958912937</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>25.97964164752199</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155196</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.4697305849646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>91.23305600531482</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>10.56236072575459</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31361,7 +31361,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31394,7 +31394,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31467,13 +31467,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674551</v>
+        <v>3.472449391674543</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248701</v>
+        <v>35.56222233248693</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725333</v>
+        <v>133.871605172533</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566382</v>
+        <v>294.7198015566375</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062221</v>
+        <v>441.708584306221</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766823</v>
+        <v>547.9785573766809</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458745</v>
+        <v>609.7317292458731</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799699</v>
+        <v>619.5978260799684</v>
       </c>
       <c r="O8" t="n">
-        <v>585.068657441506</v>
+        <v>585.0686574415047</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845405</v>
+        <v>499.3425630845393</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451955</v>
+        <v>374.9854692451946</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997767</v>
+        <v>218.1262490997762</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278392</v>
+        <v>79.12844051278373</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205536</v>
+        <v>15.20064721205532</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339641</v>
+        <v>0.2777959513339634</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328513</v>
+        <v>1.857924219328508</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930432</v>
+        <v>17.94363653930428</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986327</v>
+        <v>63.96800491986312</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743662</v>
+        <v>175.5330947743658</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693765</v>
+        <v>300.0140174693759</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169211</v>
+        <v>403.4058705169202</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675797</v>
+        <v>470.7556234675785</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436907</v>
+        <v>483.2151240436895</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627799</v>
+        <v>442.0474347627788</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873894</v>
+        <v>354.7820379873886</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391975</v>
+        <v>237.162396839197</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070809</v>
+        <v>115.3542774070806</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498354</v>
+        <v>34.51012749498345</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363607</v>
+        <v>7.488738410363589</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.1222318565347703</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765491</v>
+        <v>1.557621253765488</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529683</v>
+        <v>13.8486689652968</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869315</v>
+        <v>46.84191915869305</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412202</v>
+        <v>110.12382264122</v>
       </c>
       <c r="K10" t="n">
-        <v>180.967269301118</v>
+        <v>180.9672693011175</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552805</v>
+        <v>231.5757998552799</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243488</v>
+        <v>244.1642116243482</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057685</v>
+        <v>238.3585324057679</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231443</v>
+        <v>220.1626841231437</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463281</v>
+        <v>188.3872105463276</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130358</v>
+        <v>130.4295397130355</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658289</v>
+        <v>70.03631564658272</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516769</v>
+        <v>27.14509039516762</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543462</v>
+        <v>6.655290811543446</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629963</v>
+        <v>0.08496115929629942</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814913</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7666854143572</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>728.6709493241806</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,19 +32792,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>452.3405299254388</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34860,19 +34860,19 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9203199809852</v>
+        <v>123.344572686378</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>359.0678111972379</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>388.5769813978721</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299519</v>
+        <v>113.6738970299513</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612415</v>
+        <v>221.6187332612405</v>
       </c>
       <c r="L8" t="n">
-        <v>312.212142406695</v>
+        <v>312.2121424066937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186018</v>
+        <v>379.3854960186004</v>
       </c>
       <c r="N8" t="n">
-        <v>390.184762483379</v>
+        <v>390.1847624833775</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198193</v>
+        <v>354.9704460198179</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292709</v>
+        <v>268.1095673292697</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.679779370746</v>
+        <v>152.6797793707451</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644619</v>
+        <v>2.540711285644079</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769953</v>
+        <v>48.6954681076991</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950175</v>
+        <v>426.6378155075955</v>
       </c>
       <c r="L9" t="n">
-        <v>264.851490737047</v>
+        <v>422.107806439562</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455613</v>
+        <v>328.6215895455602</v>
       </c>
       <c r="N9" t="n">
-        <v>554.4443315952286</v>
+        <v>351.8734119603562</v>
       </c>
       <c r="O9" t="n">
-        <v>308.5245356627115</v>
+        <v>299.4511903183344</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730592</v>
+        <v>220.8076305730584</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890251</v>
+        <v>97.18062275317544</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454745</v>
+        <v>16.7646425245472</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752351</v>
+        <v>158.6977774752347</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155966</v>
+        <v>259.165825115596</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861893</v>
+        <v>283.7480885861888</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849971</v>
+        <v>282.4907047849965</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371839</v>
+        <v>244.7478120371834</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112216</v>
+        <v>185.6657698112211</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134145</v>
+        <v>44.26749646134114</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.9999866016171</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>171.212305634483</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>597.3292372408473</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>310.2064960034205</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
